--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="204">
   <si>
     <t>Regional</t>
   </si>
@@ -790,10 +790,31 @@
     <t># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
   </si>
   <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars</t>
-  </si>
-  <si>
     <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>ASHVCN</t>
+  </si>
+  <si>
+    <t>10.218.255.0/24</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ashvcn</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn</t>
   </si>
 </sst>
 </file>
@@ -1906,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,11 +1939,12 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>192</v>
       </c>
@@ -1931,8 +1953,9 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>125</v>
       </c>
@@ -1945,14 +1968,17 @@
       <c r="D2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1967,8 +1993,9 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1983,8 +2010,9 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -1993,10 +2021,11 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2005,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,11 +2051,12 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>193</v>
       </c>
@@ -2043,8 +2073,9 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>131</v>
       </c>
@@ -2081,14 +2112,17 @@
       <c r="L2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2151,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -2135,8 +2170,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -2153,8 +2189,9 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2169,10 +2206,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2181,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,11 +2231,12 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>125</v>
       </c>
@@ -2210,10 +2249,13 @@
       <c r="D1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2225,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,11 +2278,12 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>131</v>
       </c>
@@ -2277,10 +2320,13 @@
       <c r="L1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2494,28 +2540,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>194</v>
       </c>
@@ -2529,132 +2576,181 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>100</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2666,11 +2762,11 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2682,10 +2778,11 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2807,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -2976,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2991,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
   <si>
     <t>Regional</t>
   </si>
@@ -37,9 +37,6 @@
     <t>private</t>
   </si>
   <si>
-    <t>10.110.255.224/28</t>
-  </si>
-  <si>
     <t>vcn_name</t>
   </si>
   <si>
@@ -79,15 +76,9 @@
     <t>type(private|public)</t>
   </si>
   <si>
-    <t>OCPVQLGISAPP01_disk2</t>
-  </si>
-  <si>
     <t>AD1</t>
   </si>
   <si>
-    <t>OCPVQLGISAPP01</t>
-  </si>
-  <si>
     <t>iscsi</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
   </si>
   <si>
     <t>PHXHub-VCN</t>
-  </si>
-  <si>
-    <t>10.110.255.0/24</t>
   </si>
   <si>
     <t>y</t>
@@ -815,6 +803,12 @@
   </si>
   <si>
     <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn</t>
+  </si>
+  <si>
+    <t>10.110.13.0/24</t>
+  </si>
+  <si>
+    <t>10.110.0.0/16</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1102,6 +1095,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,74 +1418,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1523,217 +1519,217 @@
     <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>146</v>
+      <c r="A2" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1757,84 +1753,95 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>154</v>
+      <c r="F4" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1842,84 +1849,95 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>154</v>
+      <c r="F4" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1939,57 +1957,57 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>117</v>
+        <v>192</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1997,16 +2015,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2014,7 +2032,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2051,92 +2069,92 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="18" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>117</v>
+        <v>192</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2155,7 +2173,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2174,7 +2192,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2231,32 +2249,32 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>117</v>
+        <v>192</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2278,56 +2296,56 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="19"/>
+    <col min="13" max="13" width="9.140625" style="18"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="M1" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>117</v>
+        <v>192</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2350,50 +2368,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1"/>
     </row>
@@ -2424,50 +2442,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2476,13 +2494,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,22 +2513,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2518,16 +2536,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2543,12 +2561,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -2563,87 +2581,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -2652,39 +2670,39 @@
         <v>100</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -2693,37 +2711,37 @@
         <v>100</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2732,13 +2750,13 @@
         <v>100</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2799,95 +2817,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="32.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>30</v>
+      <c r="A8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>30</v>
+      <c r="A9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="35"/>
+      <c r="A10" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2904,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,67 +2942,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="K2" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -2993,19 +3011,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,60 +3105,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3154,115 +3172,122 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3273,13 +3298,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3287,106 +3313,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1">
+        <v>302</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -597,6 +597,58 @@
   </si>
   <si>
     <t>VCN3</t>
+  </si>
+  <si>
+    <t>VCN Peering
+comma seperated VCNs on right column are peered with VCN on left column
+LPGs and rules are created based on this section</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
+  </si>
+  <si>
+    <t># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
+  </si>
+  <si>
+    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>ASHVCN</t>
+  </si>
+  <si>
+    <t>10.218.255.0/24</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ashvcn</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn</t>
+  </si>
+  <si>
+    <t>10.110.13.0/24</t>
+  </si>
+  <si>
+    <t>10.110.0.0/16</t>
   </si>
   <si>
     <r>
@@ -666,7 +718,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represnts destination CIDRs for NAT Gatway; accepts comma seperated list; defaults to 0.0.0.0/0 if left empty
+      <t xml:space="preserve"> represents destination CIDRs for NAT Gatway; accepts comma seperated list; defaults to 0.0.0.0/0 if left empty
 </t>
     </r>
     <r>
@@ -688,7 +740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represnts destination CIDRs for Internet Gatway; accepts comma seperated list; defaults to 0.0.0.0/0 if left empty
+      <t xml:space="preserve"> represents destination CIDRs for Internet Gatway; accepts comma seperated list; defaults to 0.0.0.0/0 if left empty
 </t>
     </r>
     <r>
@@ -710,7 +762,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represnts naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n
+      <t xml:space="preserve"> represents naming convention; Mention y if you want to attachd AD and CIDR to object's display name; defaults to n
 </t>
     </r>
     <r>
@@ -732,7 +784,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represnts whether you want to add Ping rules for on prem CIDRs; useful for network related testing
+      <t xml:space="preserve"> represents whether you want to add Ping rules for on prem CIDRs; useful for network related testing
 </t>
     </r>
     <r>
@@ -754,61 +806,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> represnts whether you want to add Ping rules for peered VCNs; useful for network related testing
+      <t xml:space="preserve"> represents whether you want to add Ping rules for peered VCNs; useful for network related testing
 </t>
     </r>
-  </si>
-  <si>
-    <t>VCN Peering
-comma seperated VCNs on right column are peered with VCN on left column
-LPGs and rules are created based on this section</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
-    <t># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
-  </si>
-  <si>
-    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Ashburn</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>ASHVCN</t>
-  </si>
-  <si>
-    <t>10.218.255.0/24</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>ashvcn</t>
-  </si>
-  <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn</t>
-  </si>
-  <si>
-    <t>10.110.13.0/24</t>
-  </si>
-  <si>
-    <t>10.110.0.0/16</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +1079,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,9 +1098,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,14 +1520,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1550,10 +1550,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1570,8 +1570,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
@@ -1586,8 +1586,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="10" t="s">
         <v>163</v>
       </c>
@@ -1602,8 +1602,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1614,8 +1614,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1624,8 +1624,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1634,8 +1634,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -1644,8 +1644,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1654,8 +1654,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -1664,8 +1664,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -1674,8 +1674,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -1684,8 +1684,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
@@ -1694,8 +1694,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1704,8 +1704,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1714,8 +1714,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
@@ -1724,8 +1724,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -1770,18 +1770,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>148</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -1866,18 +1866,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>152</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>153</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>154</v>
@@ -1963,8 +1963,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>188</v>
+      <c r="A1" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1987,7 +1987,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>159</v>
@@ -2075,8 +2075,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>189</v>
+      <c r="A1" s="41" t="s">
+        <v>188</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2131,7 +2131,7 @@
         <v>138</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>159</v>
@@ -2268,7 +2268,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>159</v>
@@ -2339,7 +2339,7 @@
         <v>138</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>159</v>
@@ -2582,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2720,13 +2720,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2741,7 +2741,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2756,7 +2756,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2811,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B1" s="32"/>
     </row>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="10" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="34"/>
     </row>
@@ -2943,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3002,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3106,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3174,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -3331,20 +3331,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>153</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -599,11 +599,6 @@
     <t>VCN3</t>
   </si>
   <si>
-    <t>VCN Peering
-comma seperated VCNs on right column are peered with VCN on left column
-LPGs and rules are created based on this section</t>
-  </si>
-  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
@@ -618,9 +613,6 @@
     <t># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
   </si>
   <si>
-    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet;  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -640,9 +632,6 @@
   </si>
   <si>
     <t>ashvcn</t>
-  </si>
-  <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn</t>
   </si>
   <si>
     <t>10.110.13.0/24</t>
@@ -809,6 +798,19 @@
       <t xml:space="preserve"> represents whether you want to add Ping rules for peered VCNs; useful for network related testing
 </t>
     </r>
+  </si>
+  <si>
+    <t># DHCP option is created in the same compartment as the VCN; Whichever DHCP option name(case-sensitie) you have mentioned in the Subnets Sheet should be defined here in this sheet; server_type field is also case-sensitive.  if server_type is CustomDnsServer then you should not leave custom_dns_server column empty</t>
+  </si>
+  <si>
+    <t>VCN Peering
+comma seperated VCNs on right column are peered with VCN on left column
+LPGs and rules are created based on this section; 
+eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be as is as enterd in VCNs sheet</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1783,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1801,7 +1803,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>148</v>
@@ -1821,7 +1823,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -1877,7 +1879,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>152</v>
@@ -1897,7 +1899,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>153</v>
@@ -1917,7 +1919,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>154</v>
@@ -1964,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1987,7 +1989,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>159</v>
@@ -2076,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2131,7 +2133,7 @@
         <v>138</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>159</v>
@@ -2268,7 +2270,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>159</v>
@@ -2339,7 +2341,7 @@
         <v>138</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>159</v>
@@ -2582,7 +2584,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2599,7 +2601,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2640,13 +2642,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2681,7 +2683,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2720,13 +2722,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2741,7 +2743,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2756,7 +2758,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2811,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="32"/>
     </row>
@@ -2886,9 +2888,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B10" s="34"/>
     </row>
@@ -2922,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2945,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3002,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3106,7 +3108,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3213,7 +3215,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3251,7 +3253,7 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>148</v>
@@ -3344,7 +3346,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3370,7 +3372,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>153</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
   <si>
     <t>Regional</t>
   </si>
@@ -602,11 +602,6 @@
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
 VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
   </si>
   <si>
@@ -810,7 +805,32 @@
   </si>
   <si>
     <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be as is as enterd in VCNs sheet</t>
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Default Securoty List for PHXHub-VCN</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to theSecurity Lists; You can also edit Default Security List for a VCN- Mention subnet name as 'Default Security List for &lt;vcn_name&gt;'
+'SecRulesinOCI' sheet would be used for overwrite of all sec rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
+  </si>
+  <si>
+    <t>egress</t>
+  </si>
+  <si>
+    <t>10.20.30.40/32</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1803,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1803,7 +1823,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>148</v>
@@ -1823,7 +1843,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -1879,7 +1899,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>152</v>
@@ -1899,7 +1919,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>153</v>
@@ -1919,7 +1939,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>154</v>
@@ -1989,7 +2009,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>159</v>
@@ -2054,19 +2074,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -2078,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2133,7 +2153,7 @@
         <v>138</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>159</v>
@@ -2165,7 +2185,7 @@
         <v>123</v>
       </c>
       <c r="J3" s="1">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2173,14 +2193,22 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2192,17 +2220,25 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2212,7 +2248,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2227,6 +2265,42 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2270,7 +2344,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>159</v>
@@ -2341,7 +2415,7 @@
         <v>138</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>159</v>
@@ -2563,7 +2637,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2601,7 +2675,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2642,13 +2716,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2683,7 +2757,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2722,13 +2796,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2743,7 +2817,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2758,7 +2832,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2888,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,9 +2898,9 @@
     <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="32"/>
     </row>
@@ -2890,7 +2964,7 @@
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="34"/>
     </row>
@@ -2924,7 +2998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2943,9 +3017,9 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3004,7 +3078,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3108,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3177,7 +3251,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3289,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3253,10 +3327,10 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3346,7 +3420,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3372,7 +3446,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>153</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
   <si>
     <t>Regional</t>
   </si>
@@ -908,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -982,17 +982,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1029,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,8 +1055,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1080,13 +1071,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1095,10 +1086,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,9 +1108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,11 +1428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1542,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1572,10 +1560,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1592,8 +1580,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
@@ -1608,8 +1596,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
         <v>163</v>
       </c>
@@ -1624,8 +1612,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1636,8 +1624,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1646,8 +1634,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1656,8 +1644,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -1666,8 +1654,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1676,8 +1664,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -1686,8 +1674,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -1696,8 +1684,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -1706,8 +1694,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
@@ -1716,8 +1704,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1726,8 +1714,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1736,8 +1724,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
@@ -1746,8 +1734,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -1792,14 +1780,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1888,14 +1876,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1967,92 +1955,111 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -2062,6 +2069,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2076,142 +2086,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>123</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
         <v>123</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2221,27 +2235,29 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2251,8 +2267,6 @@
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2267,11 +2281,6 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2286,9 +2295,6 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2313,45 +2319,51 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,68 +2373,104 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="18"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2444,10 +2492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2518,14 +2566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2636,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,21 +2705,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2835,7 +2883,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2899,10 +2951,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2963,10 +3015,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2999,7 +3051,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,19 +3070,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3103,7 +3155,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3165,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,13 +3235,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3235,6 +3289,11 @@
       </c>
       <c r="D4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3272,20 +3331,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3407,16 +3466,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -382,11 +382,6 @@
   <si>
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;</t>
-  </si>
-  <si>
-    <t># Leave Parent Compartment empty or mention root if it is under root;
-Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Compartment Name is mandatory field</t>
   </si>
   <si>
     <t>PolicyStatementGroups</t>
@@ -831,6 +826,12 @@
   </si>
   <si>
     <t>10.20.30.40/32</t>
+  </si>
+  <si>
+    <t># Leave Parent Compartment empty or mention root if it is under root;
+Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Compartment Name is mandatory field
+Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, choose correct out dir as per your home region</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,9 +1428,9 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1531,7 +1532,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1541,13 +1542,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
@@ -1599,7 +1600,7 @@
       <c r="A5" s="41"/>
       <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
@@ -1781,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1791,13 +1792,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>50</v>
@@ -1811,42 +1812,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1878,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1887,13 +1888,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>50</v>
@@ -1907,42 +1908,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1991,25 +1992,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="21"/>
@@ -2017,7 +2018,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2025,13 +2026,13 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2039,7 +2040,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2047,13 +2048,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2108,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2127,54 +2128,54 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2182,16 +2183,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2207,24 +2208,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2236,7 +2237,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2244,10 +2245,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2256,7 +2257,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2341,25 +2342,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="21"/>
@@ -2394,49 +2395,49 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="21"/>
@@ -2589,7 +2590,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>112</v>
@@ -2609,7 +2610,7 @@
         <v>108</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2618,7 +2619,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>100</v>
@@ -2646,7 +2647,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>102</v>
@@ -2706,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2723,7 +2724,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2756,21 +2757,21 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2800,12 +2801,12 @@
         <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2844,13 +2845,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2865,7 +2866,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2880,7 +2881,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,47 +2953,47 @@
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3000,7 +3001,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>26</v>
@@ -3008,7 +3009,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>26</v>
@@ -3016,24 +3017,24 @@
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3072,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3086,7 +3087,7 @@
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3116,7 +3117,7 @@
         <v>47</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3130,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3151,7 +3152,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3221,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3236,7 +3237,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3332,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3348,7 +3349,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3381,15 +3382,15 @@
         <v>113</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3407,7 +3408,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -3419,7 +3420,7 @@
         <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3479,7 +3480,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3497,18 +3498,18 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1">
         <v>302</v>
@@ -3517,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -3526,7 +3527,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -598,9 +598,6 @@
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
 VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
-  </si>
-  <si>
-    <t># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars</t>
   </si>
   <si>
     <t>Region</t>
@@ -799,11 +796,6 @@
 eg: Mention Hub VCN name on left side and all spoke VCN names peered with it on right side</t>
   </si>
   <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
@@ -832,6 +824,17 @@
 Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Compartment Name is mandatory field
 Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, choose correct out dir as per your home region</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
+Don’t leave blank lines in between
+</t>
+  </si>
+  <si>
+    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+Don’t leave blank lines in between</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1433,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>147</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>150</v>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>151</v>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>152</v>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>153</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2109,7 +2112,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2208,24 +2211,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2237,7 +2240,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2245,10 +2248,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2257,7 +2260,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2342,7 +2345,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
@@ -2395,7 +2398,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
@@ -2686,7 +2689,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,9 +2708,9 @@
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2765,13 +2768,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2845,13 +2848,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2866,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2881,7 +2884,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2953,7 +2956,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="34"/>
     </row>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="36"/>
     </row>
@@ -3051,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3131,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3237,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3349,7 +3352,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3387,10 +3390,10 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3480,7 +3483,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>152</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>#Template will be picked upon from template folder based on  OS column; Backup Policy column can be left blank at the time of instance creation and can be filled up later on while attaching backup policy to the boot abd block volumes together;ssh-key-var-name is the name of variable defined in variable.tf file containing SSH key to be pushed to the server</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created</t>
   </si>
   <si>
     <t>Demo</t>
@@ -835,6 +832,10 @@
 vcn_name should be same as enterd in VCNs sheet;
 Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
 Don’t leave blank lines in between</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+tags get created in Home Region so gie appropriate outdir while execution</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1434,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1521,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,9 +1534,9 @@
     <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1603,7 +1604,7 @@
       <c r="A5" s="41"/>
       <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
@@ -1785,7 +1786,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1795,7 +1796,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
@@ -1815,7 +1816,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>147</v>
@@ -1824,10 +1825,10 @@
         <v>148</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>149</v>
@@ -1835,19 +1836,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>149</v>
@@ -1881,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1891,7 +1892,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>151</v>
@@ -1911,7 +1912,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>152</v>
@@ -1920,10 +1921,10 @@
         <v>148</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>149</v>
@@ -1931,19 +1932,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>149</v>
@@ -1981,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1995,7 +1996,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
@@ -2021,7 +2022,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2112,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2131,7 +2132,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>113</v>
@@ -2178,7 +2179,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2211,24 +2212,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2240,7 +2241,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2248,10 +2249,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2260,7 +2261,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2345,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
@@ -2398,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>113</v>
@@ -2710,7 +2711,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2727,7 +2728,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2768,13 +2769,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2809,7 +2810,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2848,13 +2849,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2869,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2884,7 +2885,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2956,47 +2957,47 @@
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3004,7 +3005,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>26</v>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>26</v>
@@ -3020,24 +3021,24 @@
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -3075,7 +3076,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3134,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3240,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3390,10 +3391,10 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3483,7 +3484,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3509,7 +3510,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>152</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
   <si>
     <t>Regional</t>
   </si>
@@ -346,10 +346,6 @@
     <t>VM_Admins</t>
   </si>
   <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Group Name is mandatory field</t>
-  </si>
-  <si>
     <t>Policy Statements</t>
   </si>
   <si>
@@ -380,10 +376,6 @@
     <t>Compartment Name</t>
   </si>
   <si>
-    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
-# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;</t>
-  </si>
-  <si>
     <t>PolicyStatementGroups</t>
   </si>
   <si>
@@ -589,12 +581,6 @@
   </si>
   <si>
     <t>VCN3</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
- rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
-This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
-VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs</t>
   </si>
   <si>
     <t>Region</t>
@@ -817,25 +803,41 @@
     <t>10.20.30.40/32</t>
   </si>
   <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+tags get created in Home Region so gie appropriate outdir while execution</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
+ rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
+This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
+VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
+Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+</t>
+  </si>
+  <si>
     <t># Leave Parent Compartment empty or mention root if it is under root;
 Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
 Compartment Name is mandatory field
-Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, choose correct out dir as per your home region</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
-Don’t leave blank lines in between
-</t>
-  </si>
-  <si>
-    <t># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-Don’t leave blank lines in between</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-tags get created in Home Region so gie appropriate outdir while execution</t>
+Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, Enter Region as your tenancy's Home Region for Compartment Creation</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Group Name is mandatory field
+Enter Region as your tenancy's Home Region for Group Creation</t>
+  </si>
+  <si>
+    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
+# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
 </sst>
 </file>
@@ -913,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1019,6 +1021,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1064,17 +1075,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1115,6 +1117,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,99 +1426,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1522,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1535,24 +1560,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="A1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
@@ -1565,10 +1590,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1585,8 +1610,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
@@ -1601,10 +1626,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
@@ -1617,8 +1642,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1629,8 +1654,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1639,8 +1664,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1649,8 +1674,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -1659,8 +1684,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1669,8 +1694,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -1679,8 +1704,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -1689,8 +1714,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -1699,8 +1724,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
@@ -1709,8 +1734,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1719,8 +1744,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1729,8 +1754,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
@@ -1739,8 +1764,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -1785,24 +1810,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>50</v>
@@ -1816,42 +1841,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1881,24 +1906,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>50</v>
@@ -1912,42 +1937,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1988,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,41 +2005,41 @@
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+    <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="21"/>
@@ -2022,7 +2047,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2030,13 +2055,13 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2044,7 +2069,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2052,13 +2077,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2112,74 +2137,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2187,16 +2212,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2212,24 +2237,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2241,7 +2266,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2249,10 +2274,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2261,7 +2286,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2346,25 +2371,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="21"/>
@@ -2399,49 +2424,49 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="21"/>
@@ -2484,69 +2509,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2555,131 +2595,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,25 +2764,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2761,21 +2815,21 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2805,12 +2859,12 @@
         <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2849,13 +2903,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2870,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2885,7 +2939,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2956,48 +3010,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3005,7 +3059,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>26</v>
@@ -3013,32 +3067,32 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="36"/>
+      <c r="A10" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3075,23 +3129,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="A1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3121,7 +3175,7 @@
         <v>47</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3135,7 +3189,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3156,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3240,13 +3294,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3336,24 +3390,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="A1" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3383,18 +3437,18 @@
         <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3412,7 +3466,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -3424,7 +3478,7 @@
         <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3471,20 +3525,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3502,18 +3556,18 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1">
         <v>302</v>
@@ -3522,7 +3576,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -3531,7 +3585,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -803,10 +803,6 @@
     <t>10.20.30.40/32</t>
   </si>
   <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-tags get created in Home Region so gie appropriate outdir while execution</t>
-  </si>
-  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
@@ -837,6 +833,10 @@
   <si>
     <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
 # Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
 Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
 </sst>
@@ -1075,7 +1075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,9 +1104,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,11 +1119,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,12 +1441,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1547,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1560,14 +1560,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1610,8 +1610,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>159</v>
       </c>
@@ -1642,8 +1642,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1654,8 +1654,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -1664,8 +1664,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1674,8 +1674,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -1684,8 +1684,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1694,8 +1694,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="12"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
@@ -1704,8 +1704,8 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11" t="s">
@@ -1714,8 +1714,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
@@ -1724,8 +1724,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
@@ -1734,8 +1734,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1744,8 +1744,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1754,8 +1754,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="11" t="s">
@@ -1764,8 +1764,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -1810,14 +1810,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1906,14 +1906,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2006,15 +2006,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2137,23 +2137,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2523,11 +2523,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2597,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2612,36 +2612,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="27" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2764,21 +2764,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3010,10 +3010,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3074,10 +3074,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3129,19 +3129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3294,13 +3294,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3390,20 +3390,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3525,16 +3525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="208">
   <si>
     <t>Regional</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>20.20.30.30/32</t>
-  </si>
-  <si>
-    <t>${oci_core_internet_gateway.PHXHub-VCN_igw.id}</t>
   </si>
   <si>
     <t>CIDR_BLOCK</t>
@@ -803,41 +800,44 @@
     <t>10.20.30.40/32</t>
   </si>
   <si>
+    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
+vcn_name should be same as enterd in VCNs sheet;
+Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
+</t>
+  </si>
+  <si>
+    <t># Leave Parent Compartment empty or mention root if it is under root;
+Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Compartment Name is mandatory field
+Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, Enter Region as your tenancy's Home Region for Compartment Creation</t>
+  </si>
+  <si>
+    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Group Name is mandatory field
+Enter Region as your tenancy's Home Region for Group Creation</t>
+  </si>
+  <si>
+    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
+# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
+  </si>
+  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
 VCN Name and Compartment Name fields in this sheet are just for informational purpose right now; would be used in future when we allow same subnet names across VCNs
-Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VCN names should be unique and are case-sensitie across sheets; All fields are mandatory for each VCN except dns_label for which the default value is vcn_name truncated to 15 chars
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># subnet names are unique and case-sensitive across sheets; All fields are mandatory for each subnet except dns_label for which the default value is subnet_name truncated to 15 chars; dhcp_option_name field if left blank means subnet will use default dhcp options of the vcn
-vcn_name should be same as enterd in VCNs sheet;
-Route Rules for IGW, NGW and SGW would be created based on parameter values: configure_igw, configure_ngw and configure_sgw respectively for each subnet. The condition is the respectove component should hae been created for that using parameters: igw_required, ngw_required and sgw_required parameters in VCNs sheet.
-</t>
-  </si>
-  <si>
-    <t># Leave Parent Compartment empty or mention root if it is under root;
-Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Compartment Name is mandatory field
-Compartments, Groups, Policies will be created in Home Region So while executing setUpOCI, Enter Region as your tenancy's Home Region for Compartment Creation</t>
-  </si>
-  <si>
-    <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Group Name is mandatory field
-Enter Region as your tenancy's Home Region for Group Creation</t>
-  </si>
-  <si>
-    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
-# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Enter Region as your tenancy's Home Region for Policy Creation</t>
-  </si>
-  <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Policy Creation</t>
+Enter Route Destination Object as either the OCID of component or  the name of component- &lt;vcn_name&gt;_igw|&lt;vcn_name&gt;_lpg|&lt;vcn_name&gt;|ngw|&lt;vcn_name&gt;|drg|&lt;vcn_name&gt;_sgw</t>
+  </si>
+  <si>
+    <t>PHXHub-VCN_igw</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>91</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>92</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>94</v>
@@ -1545,246 +1545,270 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="11" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="C3:C18"/>
     <mergeCell ref="B3:B18"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
-    <hyperlink ref="E11" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E12" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E13" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="E14" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="F12" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="F13" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="F14" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1811,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1821,13 +1845,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>50</v>
@@ -1841,42 +1865,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1917,13 +1941,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>50</v>
@@ -1937,42 +1961,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2031,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2021,13 +2045,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>118</v>
@@ -2047,7 +2071,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2058,10 +2082,10 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2069,7 +2093,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2077,13 +2101,13 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2138,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2157,54 +2181,54 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2212,16 +2236,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2237,24 +2261,24 @@
     </row>
     <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2266,7 +2290,7 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2274,10 +2298,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -2286,7 +2310,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2371,13 +2395,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>118</v>
@@ -2424,49 +2448,49 @@
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="21"/>
@@ -2524,14 +2548,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>86</v>
@@ -2542,7 +2566,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>98</v>
@@ -2553,7 +2577,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>100</v>
@@ -2564,7 +2588,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>102</v>
@@ -2613,7 +2637,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2624,7 +2648,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>86</v>
@@ -2647,7 +2671,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>104</v>
@@ -2672,7 +2696,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>100</v>
@@ -2692,7 +2716,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>108</v>
@@ -2704,7 +2728,7 @@
         <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>102</v>
@@ -2765,7 +2789,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2782,7 +2806,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2815,21 +2839,21 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -2859,12 +2883,12 @@
         <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2903,13 +2927,13 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -2924,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -2939,7 +2963,7 @@
         <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3011,47 +3035,47 @@
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -3059,7 +3083,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>26</v>
@@ -3067,7 +3091,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>26</v>
@@ -3075,24 +3099,24 @@
     </row>
     <row r="10" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3154,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3145,7 +3169,7 @@
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3175,7 +3199,7 @@
         <v>47</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3210,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3391,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3407,7 +3431,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -3440,15 +3464,15 @@
         <v>112</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3466,7 +3490,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -3478,7 +3502,7 @@
         <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3526,7 +3550,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3538,7 +3562,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -3556,18 +3580,18 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1">
         <v>302</v>
@@ -3576,7 +3600,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -3585,7 +3609,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -826,10 +826,6 @@
 Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
   <si>
-    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
-Enter Region as your tenancy's Home Region for Policy Creation</t>
-  </si>
-  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
@@ -838,6 +834,10 @@
   </si>
   <si>
     <t>PHXHub-VCN_igw</t>
+  </si>
+  <si>
+    <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
+Enter Region as your tenancy's Home Region for Tags Creation</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A18"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2011,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2031,7 +2031,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2082,7 +2082,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>120</v>

--- a/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
+++ b/oci_tenancy/2.SetUpOCI_Via_TF_v2.0/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="7" r:id="rId1"/>
@@ -821,11 +821,6 @@
 Enter Region as your tenancy's Home Region for Group Creation</t>
   </si>
   <si>
-    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;
-# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
-Enter Region as your tenancy's Home Region for Policy Creation</t>
-  </si>
-  <si>
     <t># Rows after &lt;END&gt; or &lt;end&gt; will not be processed; While adding more rules, you should move previous ones to the below and insert new
  rows at the beginning and Enter &lt;END&gt; so that old rules already added don’t get added again;
 This sheet will only add new rules to the route tables; 'RouteRulesinOCI' sheet would be used for overwrite of all route rules in OCI; That means whatever is there in that sheet would be updated as it is in OCI
@@ -838,6 +833,11 @@
   <si>
     <t># Horizontal row specifies the TagNameSpace Names to be created; Vertical row under each TagNameSpace represnts Keys in that tagnamespace; Enter compartment name in which  all tagnamespaces and keys will be created;
 Enter Region as your tenancy's Home Region for Tags Creation</t>
+  </si>
+  <si>
+    <t>$ and * in PolicyStatements would be replaced by PolicyStatementGroup and PolicyStatementCompartment respectively;If Compartment Name is left empty or mentioned 'root', policy will be created in root compartment;
+# Rows after &lt;END&gt; or &lt;end&gt; will not be processed;
+Enter Region as your tenancy's Home Region for Policy Creation</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1562,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2031,7 +2031,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2082,7 +2082,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>120</v>
@@ -2621,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2637,7 +2637,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
